--- a/SEMANARIO_INCENDIO/LocalizaGoogle.xlsx
+++ b/SEMANARIO_INCENDIO/LocalizaGoogle.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AL$346</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5332" uniqueCount="3625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5337" uniqueCount="3626">
   <si>
     <t>REGION</t>
   </si>
@@ -10889,6 +10892,9 @@
   </si>
   <si>
     <t>LA CALERA</t>
+  </si>
+  <si>
+    <t>Los Álamos</t>
   </si>
 </sst>
 </file>
@@ -10967,13 +10973,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11268,15 +11275,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL346"/>
+  <dimension ref="A1:AL347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
-      <selection activeCell="A346" sqref="A346"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ347" sqref="AJ347"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="14" max="14" width="30.77734375" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -33143,7 +33150,40 @@
         <v>3624</v>
       </c>
     </row>
+    <row r="347" spans="1:38">
+      <c r="A347" s="3">
+        <v>8</v>
+      </c>
+      <c r="B347" s="3">
+        <v>82</v>
+      </c>
+      <c r="C347" s="2">
+        <v>8206</v>
+      </c>
+      <c r="D347" s="3"/>
+      <c r="E347" s="3"/>
+      <c r="F347" s="3"/>
+      <c r="G347" s="3"/>
+      <c r="I347" s="3"/>
+      <c r="K347" s="3"/>
+      <c r="N347" t="s">
+        <v>2388</v>
+      </c>
+      <c r="O347" s="3" t="s">
+        <v>2425</v>
+      </c>
+      <c r="P347" t="s">
+        <v>2434</v>
+      </c>
+      <c r="Q347" t="s">
+        <v>2435</v>
+      </c>
+      <c r="AJ347" s="4" t="s">
+        <v>3625</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:AL346"/>
   <sortState ref="A2:AL345">
     <sortCondition ref="AJ186"/>
   </sortState>

--- a/SEMANARIO_INCENDIO/LocalizaGoogle.xlsx
+++ b/SEMANARIO_INCENDIO/LocalizaGoogle.xlsx
@@ -10973,14 +10973,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11277,7 +11276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL347"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L308" workbookViewId="0">
       <selection activeCell="AJ347" sqref="AJ347"/>
     </sheetView>
   </sheetViews>
@@ -33178,7 +33177,7 @@
       <c r="Q347" t="s">
         <v>2435</v>
       </c>
-      <c r="AJ347" s="4" t="s">
+      <c r="AJ347" t="s">
         <v>3625</v>
       </c>
     </row>

--- a/SEMANARIO_INCENDIO/LocalizaGoogle.xlsx
+++ b/SEMANARIO_INCENDIO/LocalizaGoogle.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5337" uniqueCount="3626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5342" uniqueCount="3627">
   <si>
     <t>REGION</t>
   </si>
@@ -10895,6 +10895,9 @@
   </si>
   <si>
     <t>Los Álamos</t>
+  </si>
+  <si>
+    <t>Monte Águila</t>
   </si>
 </sst>
 </file>
@@ -11274,10 +11277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL347"/>
+  <dimension ref="A1:AL348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L308" workbookViewId="0">
-      <selection activeCell="AJ347" sqref="AJ347"/>
+    <sheetView tabSelected="1" topLeftCell="L323" workbookViewId="0">
+      <selection activeCell="AK347" sqref="AK347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -33181,6 +33184,38 @@
         <v>3625</v>
       </c>
     </row>
+    <row r="348" spans="1:38">
+      <c r="A348" s="3">
+        <v>8</v>
+      </c>
+      <c r="B348" s="3">
+        <v>83</v>
+      </c>
+      <c r="C348" s="2">
+        <v>8303</v>
+      </c>
+      <c r="G348" s="3"/>
+      <c r="H348" s="3"/>
+      <c r="I348" s="3"/>
+      <c r="J348" s="3"/>
+      <c r="L348" s="3"/>
+      <c r="M348" s="3"/>
+      <c r="N348" t="s">
+        <v>2376</v>
+      </c>
+      <c r="O348" s="3" t="s">
+        <v>2425</v>
+      </c>
+      <c r="P348" t="s">
+        <v>2434</v>
+      </c>
+      <c r="Q348" t="s">
+        <v>2435</v>
+      </c>
+      <c r="AJ348" t="s">
+        <v>3626</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AL346"/>
   <sortState ref="A2:AL345">
